--- a/src/test/resources/SMSTestData.xlsx
+++ b/src/test/resources/SMSTestData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\METHAPRIAN S.K\eclipse-workspace\com.crm.SocialManagementSystem\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE182CF-376D-46D1-8F51-87F678BAE463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53134252-3DD7-438B-B64E-BB027EB98690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts_Tc_Accounts_01" sheetId="1" r:id="rId1"/>
     <sheet name="Accounts_Tc_Expenses_15" sheetId="2" r:id="rId2"/>
     <sheet name="Activity_Tc_Activity_20" sheetId="4" r:id="rId3"/>
-    <sheet name="Accounts_TC_Accounts_Stud" sheetId="6" r:id="rId4"/>
-    <sheet name="DataProvider" sheetId="9" r:id="rId5"/>
-    <sheet name="Login_Tc_Login_01" sheetId="3" r:id="rId6"/>
-    <sheet name="Activities_Tc_Activities_10" sheetId="5" r:id="rId7"/>
-    <sheet name="Activities_Tc_Activities_13" sheetId="7" r:id="rId8"/>
+    <sheet name="Broken_Links" sheetId="10" r:id="rId4"/>
+    <sheet name="Accounts_TC_Accounts_Stud" sheetId="6" r:id="rId5"/>
+    <sheet name="DataProvider" sheetId="9" r:id="rId6"/>
+    <sheet name="Login_Tc_Login_01" sheetId="3" r:id="rId7"/>
+    <sheet name="Activities_Tc_Activities_10" sheetId="5" r:id="rId8"/>
+    <sheet name="Activities_Tc_Activities_13" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -694,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D55EB-0C2C-4A47-B52B-4FE8BB2D9C88}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -805,6 +806,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64198611-B14B-4901-966D-BB7A3F961A4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A80D84C-8574-4161-A1A8-95E3B3798B03}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -900,7 +913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982D2BAD-45B9-45D6-A09E-E7C98B715C89}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -959,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4D81CC-2108-4A19-BD58-E1D05723D2CA}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1031,7 +1044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817D3D85-785C-48B5-AC49-3E8C8AB9F13E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1084,7 +1097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A9D58-5BF9-44DF-B01D-3FDDC24582DC}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/src/test/resources/SMSTestData.xlsx
+++ b/src/test/resources/SMSTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\METHAPRIAN S.K\eclipse-workspace\com.crm.SocialManagementSystem\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53134252-3DD7-438B-B64E-BB027EB98690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9EE96-8458-4A92-8592-8F1454BDD271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts_Tc_Accounts_01" sheetId="1" r:id="rId1"/>
